--- a/sputnik/personal/ee/260ee.xlsx
+++ b/sputnik/personal/ee/260ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -43,6 +34,24 @@
   </si>
   <si>
     <t xml:space="preserve">кВт/ч к оплате </t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>к доплате</t>
   </si>
 </sst>
 </file>
@@ -50,7 +59,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -92,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -115,42 +124,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -160,7 +140,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -169,33 +149,13 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -503,10 +463,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -517,289 +477,155 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
+      <c r="H1" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>43337</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>43386</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="C2" s="2">
+        <v>200</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
       <c r="F2" s="5"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="C3" s="2">
+        <v>100</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
       <c r="F3" s="5"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43386</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="9">
+        <v>43672</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
-        <v>200</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="8">
+        <v>311</v>
+      </c>
+      <c r="D4" s="2">
         <f>C4-C2</f>
-        <v>200</v>
-      </c>
-      <c r="E4" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="F4" s="6">
+        <v>111</v>
+      </c>
+      <c r="E4" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F4" s="5">
         <f>D4*E4</f>
-        <v>900</v>
+        <v>498.39000000000004</v>
+      </c>
+      <c r="G4" s="10">
+        <v>498.39</v>
+      </c>
+      <c r="H4" s="10">
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
-        <v>100</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="8">
+        <v>300</v>
+      </c>
+      <c r="D5" s="2">
         <f>C5-C3</f>
-        <v>100</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F5" s="6">
+        <v>200</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F5" s="5">
         <f>D5*E5</f>
-        <v>235</v>
+        <v>486.00000000000006</v>
+      </c>
+      <c r="G5" s="10">
+        <v>486</v>
+      </c>
+      <c r="H5" s="10">
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
-        <v>43672</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="18">
-        <v>311</v>
-      </c>
-      <c r="D6" s="3">
-        <f>C6-C4</f>
-        <v>111</v>
-      </c>
-      <c r="E6" s="18">
-        <v>4.49</v>
-      </c>
-      <c r="F6" s="6">
-        <f>D6*E6</f>
-        <v>498.39000000000004</v>
+      <c r="A6" s="3"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="10">
+        <f>SUM(G2:G5)</f>
+        <v>984.39</v>
+      </c>
+      <c r="H6" s="10">
+        <f>SUM(H2:H5)</f>
+        <v>936</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="18">
-        <v>300</v>
-      </c>
-      <c r="D7" s="3">
-        <f>C7-C5</f>
-        <v>200</v>
-      </c>
-      <c r="E7" s="18">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F7" s="6">
-        <f>D7*E7</f>
-        <v>486.00000000000006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="6"/>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10">
+        <f>SUM(H6,-G6)</f>
+        <v>-48.389999999999986</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/260ee.xlsx
+++ b/sputnik/personal/ee/260ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -463,10 +463,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -595,36 +595,90 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="5" t="s">
+      <c r="A6" s="9">
+        <v>43972</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8">
+        <v>411</v>
+      </c>
+      <c r="D6" s="2">
+        <f>C6-C4</f>
+        <v>100</v>
+      </c>
+      <c r="E6" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F6" s="5">
+        <f>D6*E6</f>
+        <v>449</v>
+      </c>
+      <c r="G6" s="10">
+        <v>449</v>
+      </c>
+      <c r="H6" s="10">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8">
+        <v>300</v>
+      </c>
+      <c r="D7" s="2">
+        <f>C7-C5</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F7" s="5">
+        <f>D7*E7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="10">
-        <f>SUM(G2:G5)</f>
-        <v>984.39</v>
-      </c>
-      <c r="H6" s="10">
-        <f>SUM(H2:H5)</f>
-        <v>936</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="5" t="s">
+      <c r="G8" s="10">
+        <f>SUM(G2:G7)</f>
+        <v>1433.3899999999999</v>
+      </c>
+      <c r="H8" s="10">
+        <f>SUM(H2:H7)</f>
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10">
-        <f>SUM(H6,-G6)</f>
-        <v>-48.389999999999986</v>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10">
+        <f>SUM(H8,-G8)</f>
+        <v>-47.389999999999873</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/260ee.xlsx
+++ b/sputnik/personal/ee/260ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -463,10 +463,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -649,36 +649,90 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="5" t="s">
+      <c r="A8" s="9">
+        <v>43997</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
+        <v>511</v>
+      </c>
+      <c r="D8" s="2">
+        <f>C8-C6</f>
+        <v>100</v>
+      </c>
+      <c r="E8" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="5">
+        <f>D8*E8</f>
+        <v>449</v>
+      </c>
+      <c r="G8" s="10">
+        <v>449</v>
+      </c>
+      <c r="H8" s="10">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
+        <v>500</v>
+      </c>
+      <c r="D9" s="2">
+        <f>C9-C7</f>
+        <v>200</v>
+      </c>
+      <c r="E9" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="5">
+        <f>D9*E9</f>
+        <v>486.00000000000006</v>
+      </c>
+      <c r="G9" s="10">
+        <v>486</v>
+      </c>
+      <c r="H9" s="10">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="10">
-        <f>SUM(G2:G7)</f>
-        <v>1433.3899999999999</v>
-      </c>
-      <c r="H8" s="10">
-        <f>SUM(H2:H7)</f>
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="5" t="s">
+      <c r="G10" s="10">
+        <f>SUM(G2:G9)</f>
+        <v>2368.39</v>
+      </c>
+      <c r="H10" s="10">
+        <f>SUM(H2:H9)</f>
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10">
-        <f>SUM(H8,-G8)</f>
-        <v>-47.389999999999873</v>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10">
+        <f>SUM(H10,-G10)</f>
+        <v>-46.389999999999873</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/260ee.xlsx
+++ b/sputnik/personal/ee/260ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -463,10 +463,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -551,14 +551,14 @@
         <v>311</v>
       </c>
       <c r="D4" s="2">
-        <f>C4-C2</f>
+        <f t="shared" ref="D4:D11" si="0">C4-C2</f>
         <v>111</v>
       </c>
       <c r="E4" s="8">
         <v>4.49</v>
       </c>
       <c r="F4" s="5">
-        <f>D4*E4</f>
+        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
         <v>498.39000000000004</v>
       </c>
       <c r="G4" s="10">
@@ -577,14 +577,14 @@
         <v>300</v>
       </c>
       <c r="D5" s="2">
-        <f>C5-C3</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="E5" s="8">
         <v>2.4300000000000002</v>
       </c>
       <c r="F5" s="5">
-        <f>D5*E5</f>
+        <f t="shared" si="1"/>
         <v>486.00000000000006</v>
       </c>
       <c r="G5" s="10">
@@ -605,14 +605,14 @@
         <v>411</v>
       </c>
       <c r="D6" s="2">
-        <f>C6-C4</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E6" s="8">
         <v>4.49</v>
       </c>
       <c r="F6" s="5">
-        <f>D6*E6</f>
+        <f t="shared" si="1"/>
         <v>449</v>
       </c>
       <c r="G6" s="10">
@@ -631,14 +631,14 @@
         <v>300</v>
       </c>
       <c r="D7" s="2">
-        <f>C7-C5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7" s="8">
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="5">
-        <f>D7*E7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G7" s="10">
@@ -659,14 +659,14 @@
         <v>511</v>
       </c>
       <c r="D8" s="2">
-        <f>C8-C6</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E8" s="8">
         <v>4.49</v>
       </c>
       <c r="F8" s="5">
-        <f>D8*E8</f>
+        <f t="shared" si="1"/>
         <v>449</v>
       </c>
       <c r="G8" s="10">
@@ -685,14 +685,14 @@
         <v>500</v>
       </c>
       <c r="D9" s="2">
-        <f>C9-C7</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="E9" s="8">
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="5">
-        <f>D9*E9</f>
+        <f t="shared" si="1"/>
         <v>486.00000000000006</v>
       </c>
       <c r="G9" s="10">
@@ -703,36 +703,86 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="5" t="s">
+      <c r="A10" s="9">
+        <v>44048</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8">
+        <v>611</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E10" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" ref="F10:F11" si="2">D10*E10</f>
+        <v>471</v>
+      </c>
+      <c r="G10" s="10">
+        <v>471</v>
+      </c>
+      <c r="H10" s="10">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8">
+        <v>500</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="10">
-        <f>SUM(G2:G9)</f>
-        <v>2368.39</v>
-      </c>
-      <c r="H10" s="10">
-        <f>SUM(H2:H9)</f>
-        <v>2322</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="5" t="s">
+      <c r="G12" s="10">
+        <f>SUM(G2:G11)</f>
+        <v>2839.39</v>
+      </c>
+      <c r="H12" s="10">
+        <f>SUM(H2:H11)</f>
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10">
-        <f>SUM(H10,-G10)</f>
-        <v>-46.389999999999873</v>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10">
+        <f>SUM(H12,-G12)</f>
+        <v>-40.389999999999873</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/260ee.xlsx
+++ b/sputnik/personal/ee/260ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -463,10 +463,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -753,36 +753,86 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="5" t="s">
+      <c r="A12" s="9">
+        <v>44090</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8">
+        <v>711</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12:D13" si="3">C12-C10</f>
+        <v>100</v>
+      </c>
+      <c r="E12" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" ref="F12:F13" si="4">D12*E12</f>
+        <v>471</v>
+      </c>
+      <c r="G12" s="10">
+        <v>471</v>
+      </c>
+      <c r="H12" s="10">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8">
+        <v>500</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="10">
-        <f>SUM(G2:G11)</f>
-        <v>2839.39</v>
-      </c>
-      <c r="H12" s="10">
-        <f>SUM(H2:H11)</f>
-        <v>2799</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="5" t="s">
+      <c r="G14" s="10">
+        <f>SUM(G2:G13)</f>
+        <v>3310.39</v>
+      </c>
+      <c r="H14" s="10">
+        <f>SUM(H2:H13)</f>
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10">
-        <f>SUM(H12,-G12)</f>
-        <v>-40.389999999999873</v>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10">
+        <f>SUM(H14,-G14)</f>
+        <v>-34.389999999999873</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/260ee.xlsx
+++ b/sputnik/personal/ee/260ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -463,10 +463,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -803,36 +803,87 @@
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="5" t="s">
+      <c r="A14" s="9">
+        <v>44138</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8">
+        <v>811</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14:D15" si="5">C14-C12</f>
+        <v>100</v>
+      </c>
+      <c r="E14" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" ref="F14:F15" si="6">D14*E14</f>
+        <v>471</v>
+      </c>
+      <c r="G14" s="10">
+        <f>SUM(F14,F15)</f>
+        <v>726</v>
+      </c>
+      <c r="H14" s="10">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8">
+        <v>600</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="6"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="10">
-        <f>SUM(G2:G13)</f>
-        <v>3310.39</v>
-      </c>
-      <c r="H14" s="10">
-        <f>SUM(H2:H13)</f>
-        <v>3276</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="5" t="s">
+      <c r="G16" s="10">
+        <f>SUM(G2:G15)</f>
+        <v>4036.39</v>
+      </c>
+      <c r="H16" s="10">
+        <f>SUM(H2:H15)</f>
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10">
-        <f>SUM(H14,-G14)</f>
-        <v>-34.389999999999873</v>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10">
+        <f>SUM(H16,-G16)</f>
+        <v>-28.389999999999873</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/260ee.xlsx
+++ b/sputnik/personal/ee/260ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -463,10 +463,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -854,35 +854,86 @@
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="5" t="s">
+      <c r="A16" s="9">
+        <v>44355</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="8">
+        <v>911</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16:D17" si="7">C16-C14</f>
+        <v>100</v>
+      </c>
+      <c r="E16" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" ref="F16:F17" si="8">D16*E16</f>
+        <v>471</v>
+      </c>
+      <c r="G16" s="10">
+        <f>SUM(F16,F17)</f>
+        <v>726</v>
+      </c>
+      <c r="H16" s="10">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8">
+        <v>700</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="E17" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="8"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G18" s="10">
         <f>SUM(G2:G15)</f>
         <v>4036.39</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H18" s="10">
         <f>SUM(H2:H15)</f>
         <v>4008</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="5" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10">
-        <f>SUM(H16,-G16)</f>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10">
+        <f>SUM(H18,-G18)</f>
         <v>-28.389999999999873</v>
       </c>
     </row>

--- a/sputnik/personal/ee/260ee.xlsx
+++ b/sputnik/personal/ee/260ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -463,10 +463,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -905,36 +905,87 @@
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="5" t="s">
+      <c r="A18" s="9">
+        <v>44412</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1111</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" ref="D18:D19" si="9">C18-C16</f>
+        <v>200</v>
+      </c>
+      <c r="E18" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" ref="F18:F19" si="10">D18*E18</f>
+        <v>992</v>
+      </c>
+      <c r="G18" s="10">
+        <f>SUM(F18,F19)</f>
+        <v>1260</v>
+      </c>
+      <c r="H18" s="10">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8">
+        <v>800</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="E19" s="8">
+        <v>2.68</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="10"/>
+        <v>268</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="10">
-        <f>SUM(G2:G15)</f>
-        <v>4036.39</v>
-      </c>
-      <c r="H18" s="10">
-        <f>SUM(H2:H15)</f>
-        <v>4008</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="5" t="s">
+      <c r="G20" s="10">
+        <f>SUM(G2:G19)</f>
+        <v>6022.3899999999994</v>
+      </c>
+      <c r="H20" s="10">
+        <f>SUM(H2:H19)</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10">
-        <f>SUM(H18,-G18)</f>
-        <v>-28.389999999999873</v>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10">
+        <f>SUM(H20,-G20)</f>
+        <v>-22.389999999999418</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/260ee.xlsx
+++ b/sputnik/personal/ee/260ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -463,10 +463,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -956,35 +956,86 @@
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="5" t="s">
+      <c r="A20" s="9">
+        <v>44487</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1311</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" ref="D20:D21" si="11">C20-C18</f>
+        <v>200</v>
+      </c>
+      <c r="E20" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" ref="F20:F21" si="12">D20*E20</f>
+        <v>992</v>
+      </c>
+      <c r="G20" s="10">
+        <f>SUM(F20,F21)</f>
+        <v>992</v>
+      </c>
+      <c r="H20" s="10">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8">
+        <v>800</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="8">
+        <v>2.68</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="10">
-        <f>SUM(G2:G19)</f>
-        <v>6022.3899999999994</v>
-      </c>
-      <c r="H20" s="10">
-        <f>SUM(H2:H19)</f>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="5" t="s">
+      <c r="G22" s="10">
+        <f>SUM(G2:G21)</f>
+        <v>7014.3899999999994</v>
+      </c>
+      <c r="H22" s="10">
+        <f>SUM(H2:H21)</f>
+        <v>6992</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10">
-        <f>SUM(H20,-G20)</f>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10">
+        <f>SUM(H22,-G22)</f>
         <v>-22.389999999999418</v>
       </c>
     </row>

--- a/sputnik/personal/ee/260ee.xlsx
+++ b/sputnik/personal/ee/260ee.xlsx
@@ -61,7 +61,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +88,13 @@
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -128,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -156,6 +163,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -466,7 +474,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -723,10 +731,10 @@
         <f t="shared" ref="F10:F11" si="2">D10*E10</f>
         <v>471</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="11">
         <v>471</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="11">
         <v>477</v>
       </c>
     </row>
@@ -749,8 +757,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
@@ -773,10 +781,10 @@
         <f t="shared" ref="F12:F13" si="4">D12*E12</f>
         <v>471</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="11">
         <v>471</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="11">
         <v>477</v>
       </c>
     </row>
@@ -799,8 +807,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
@@ -823,11 +831,11 @@
         <f t="shared" ref="F14:F15" si="6">D14*E14</f>
         <v>471</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="11">
         <f>SUM(F14,F15)</f>
         <v>726</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="11">
         <v>732</v>
       </c>
     </row>
@@ -850,8 +858,8 @@
         <f t="shared" si="6"/>
         <v>254.99999999999997</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
@@ -874,11 +882,11 @@
         <f t="shared" ref="F16:F17" si="8">D16*E16</f>
         <v>471</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="11">
         <f>SUM(F16,F17)</f>
         <v>726</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="11">
         <v>732</v>
       </c>
     </row>
